--- a/src/test/resources/database/TestData.xlsx
+++ b/src/test/resources/database/TestData.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Goutham\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Vulcan_GroupActivity\VULCUAN_Cucumber_Framework\src\test\resources\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B1D6D0-7970-499F-806D-2F6427459A86}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BA3AE3-1F60-4C59-88D4-0423B75B55E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="570" yWindow="2175" windowWidth="19920" windowHeight="7110" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="DomesticFTA" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>S.No</t>
   </si>
@@ -52,6 +53,84 @@
   </si>
   <si>
     <t>efgh</t>
+  </si>
+  <si>
+    <t>ReciverBankName</t>
+  </si>
+  <si>
+    <t>ReceiverName</t>
+  </si>
+  <si>
+    <t>ReceAccNum</t>
+  </si>
+  <si>
+    <t>SwiftMsg</t>
+  </si>
+  <si>
+    <t>TransferType</t>
+  </si>
+  <si>
+    <t>DOT</t>
+  </si>
+  <si>
+    <t>TransferDesc</t>
+  </si>
+  <si>
+    <t>SBI</t>
+  </si>
+  <si>
+    <t>MT103</t>
+  </si>
+  <si>
+    <t>Domestic Transfer</t>
+  </si>
+  <si>
+    <t>DataBinding</t>
+  </si>
+  <si>
+    <t>Data001</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Data002</t>
+  </si>
+  <si>
+    <t>Data003</t>
+  </si>
+  <si>
+    <t>Data004</t>
+  </si>
+  <si>
+    <t>Data005</t>
+  </si>
+  <si>
+    <t>HDFC</t>
+  </si>
+  <si>
+    <t>RBS</t>
+  </si>
+  <si>
+    <t>ICICI</t>
+  </si>
+  <si>
+    <t>CITI</t>
+  </si>
+  <si>
+    <t>Pitter</t>
+  </si>
+  <si>
+    <t>Raj</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Jacson</t>
   </si>
 </sst>
 </file>
@@ -87,9 +166,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,19 +452,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -398,7 +478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -412,7 +492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -424,6 +504,202 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E91CADB-E8C6-4F66-A885-A40DC0D6E630}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>1234556655</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="2">
+        <v>117924</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3">
+        <v>1234556656</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="2">
+        <v>118655</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4">
+        <v>1234556657</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="2">
+        <v>120481</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5">
+        <v>1234556658</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="2">
+        <v>118655</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6">
+        <v>1234556659</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="2">
+        <v>117559</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/database/TestData.xlsx
+++ b/src/test/resources/database/TestData.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Goutham\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHAMBHU\Downloads\VULCUAN_Cucumber_Framework (1)\VULCUAN_Cucumber_Framework\src\test\resources\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B1D6D0-7970-499F-806D-2F6427459A86}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0012693-0BF0-489A-B671-AA9E8F55FFB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="LocalFT" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,33 +25,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
-  <si>
-    <t>S.No</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Databinding</t>
   </si>
   <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
     <t>TestData_001</t>
   </si>
   <si>
-    <t>TestData_002</t>
-  </si>
-  <si>
-    <t>12345</t>
-  </si>
-  <si>
-    <t>abcd</t>
-  </si>
-  <si>
-    <t>efgh</t>
+    <t>ReceiverBankName</t>
+  </si>
+  <si>
+    <t>ReceiverName</t>
+  </si>
+  <si>
+    <t>ReceiverAccNum</t>
+  </si>
+  <si>
+    <t>SWIFTmsg</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>TransferType</t>
+  </si>
+  <si>
+    <t>DateofTransfer</t>
+  </si>
+  <si>
+    <t>TransferDescription</t>
+  </si>
+  <si>
+    <t>HDFC</t>
+  </si>
+  <si>
+    <t>Desy</t>
+  </si>
+  <si>
+    <t>fund transfer</t>
+  </si>
+  <si>
+    <t>5-14-2020</t>
+  </si>
+  <si>
+    <t>60000</t>
+  </si>
+  <si>
+    <t>76549876</t>
+  </si>
+  <si>
+    <t>MT103</t>
+  </si>
+  <si>
+    <t>Local Transfer</t>
   </si>
 </sst>
 </file>
@@ -87,9 +114,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -150,7 +178,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -185,7 +213,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -370,63 +398,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/database/TestData.xlsx
+++ b/src/test/resources/database/TestData.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Vulcan_GroupActivity\VULCUAN_Cucumber_Framework\src\test\resources\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Swetha\VULCUAN_Cucumber_Framework\VULCUAN_Cucumber_Framework\src\test\resources\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BA3AE3-1F60-4C59-88D4-0423B75B55E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59EF191-622E-4D73-94B5-459F17B53EBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="2175" windowWidth="19920" windowHeight="7110" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="570" yWindow="1170" windowWidth="19920" windowHeight="7110" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="DomesticFTA" sheetId="2" r:id="rId2"/>
+    <sheet name="InternationalFT" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
   <si>
     <t>S.No</t>
   </si>
@@ -515,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E91CADB-E8C6-4F66-A885-A40DC0D6E630}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,4 +706,81 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7776799E-0F75-4278-ACA3-2233F84FA8C8}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2">
+        <v>1234556657</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="2">
+        <v>120481</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/database/TestData.xlsx
+++ b/src/test/resources/database/TestData.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Swetha\VULCUAN_Cucumber_Framework\VULCUAN_Cucumber_Framework\src\test\resources\database\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59EF191-622E-4D73-94B5-459F17B53EBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8A786D49-BCA7-41A2-91BA-3264CA36E22D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="1170" windowWidth="19920" windowHeight="7110" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21075" windowHeight="6345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -18,6 +13,7 @@
     <sheet name="InternationalFT" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="39">
   <si>
     <t>S.No</t>
   </si>
@@ -132,6 +128,18 @@
   </si>
   <si>
     <t>Jacson</t>
+  </si>
+  <si>
+    <t>MT104</t>
+  </si>
+  <si>
+    <t>MT105</t>
+  </si>
+  <si>
+    <t>MT106</t>
+  </si>
+  <si>
+    <t>MT107</t>
   </si>
 </sst>
 </file>
@@ -710,10 +718,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7776799E-0F75-4278-ACA3-2233F84FA8C8}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,6 +788,122 @@
         <v>15</v>
       </c>
     </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3">
+        <v>1234556658</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="2">
+        <v>120482</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4">
+        <v>1234556659</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="2">
+        <v>120483</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5">
+        <v>1234556660</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="2">
+        <v>120484</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6">
+        <v>1234556661</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="2">
+        <v>120485</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/database/TestData.xlsx
+++ b/src/test/resources/database/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8A786D49-BCA7-41A2-91BA-3264CA36E22D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B7C19F80-AD42-40D1-AE18-130610D1BEC5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21075" windowHeight="6345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21075" windowHeight="4365" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="40">
   <si>
     <t>S.No</t>
   </si>
@@ -140,19 +140,28 @@
   </si>
   <si>
     <t>MT107</t>
+  </si>
+  <si>
+    <t>International Transfer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -175,10 +184,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -721,7 +731,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,8 +788,8 @@
       <c r="F2">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
-        <v>18</v>
+      <c r="G2" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="H2" s="2">
         <v>120481</v>
@@ -807,8 +817,8 @@
       <c r="F3">
         <v>7</v>
       </c>
-      <c r="G3" t="s">
-        <v>18</v>
+      <c r="G3" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="H3" s="2">
         <v>120482</v>
@@ -836,8 +846,8 @@
       <c r="F4">
         <v>8</v>
       </c>
-      <c r="G4" t="s">
-        <v>18</v>
+      <c r="G4" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="H4" s="2">
         <v>120483</v>
@@ -865,8 +875,8 @@
       <c r="F5">
         <v>9</v>
       </c>
-      <c r="G5" t="s">
-        <v>18</v>
+      <c r="G5" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="H5" s="2">
         <v>120484</v>
@@ -894,8 +904,8 @@
       <c r="F6">
         <v>10</v>
       </c>
-      <c r="G6" t="s">
-        <v>18</v>
+      <c r="G6" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="H6" s="2">
         <v>120485</v>
@@ -906,5 +916,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/database/TestData.xlsx
+++ b/src/test/resources/database/TestData.xlsx
@@ -3,17 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B7C19F80-AD42-40D1-AE18-130610D1BEC5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohan\eclipse-workspace\Cucumber orkspace\Day 5 Training.zip_expanded\Day 5 Training\CucumberFramework\src\test\resources\database\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BF615E-E049-40D0-AB1C-AC382F6896B6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21075" windowHeight="4365" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21075" windowHeight="8205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="DomesticFTA" sheetId="2" r:id="rId2"/>
-    <sheet name="InternationalFT" sheetId="3" r:id="rId3"/>
+    <sheet name="Signup" sheetId="6" r:id="rId1"/>
+    <sheet name="LocalFT" sheetId="4" r:id="rId2"/>
+    <sheet name="Login" sheetId="1" r:id="rId3"/>
+    <sheet name="DomesticFTA" sheetId="2" r:id="rId4"/>
+    <sheet name="InternationalFT" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,133 +29,283 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="90">
+  <si>
+    <t>Databinding</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>TestData_001</t>
+  </si>
+  <si>
+    <t>TestData_002</t>
+  </si>
+  <si>
+    <t>ReciverBankName</t>
+  </si>
+  <si>
+    <t>ReceiverName</t>
+  </si>
+  <si>
+    <t>ReceAccNum</t>
+  </si>
+  <si>
+    <t>SwiftMsg</t>
+  </si>
+  <si>
+    <t>TransferType</t>
+  </si>
+  <si>
+    <t>DOT</t>
+  </si>
+  <si>
+    <t>TransferDesc</t>
+  </si>
+  <si>
+    <t>SBI</t>
+  </si>
+  <si>
+    <t>MT103</t>
+  </si>
+  <si>
+    <t>Domestic Transfer</t>
+  </si>
+  <si>
+    <t>DataBinding</t>
+  </si>
+  <si>
+    <t>Data001</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Data002</t>
+  </si>
+  <si>
+    <t>Data003</t>
+  </si>
+  <si>
+    <t>Data004</t>
+  </si>
+  <si>
+    <t>Data005</t>
+  </si>
+  <si>
+    <t>HDFC</t>
+  </si>
+  <si>
+    <t>RBS</t>
+  </si>
+  <si>
+    <t>ICICI</t>
+  </si>
+  <si>
+    <t>CITI</t>
+  </si>
+  <si>
+    <t>Pitter</t>
+  </si>
+  <si>
+    <t>Raj</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Jacson</t>
+  </si>
+  <si>
+    <t>MT104</t>
+  </si>
+  <si>
+    <t>MT105</t>
+  </si>
+  <si>
+    <t>MT106</t>
+  </si>
+  <si>
+    <t>MT107</t>
+  </si>
+  <si>
+    <t>International Transfer</t>
+  </si>
+  <si>
+    <t>ReceiverBankName</t>
+  </si>
+  <si>
+    <t>Desy</t>
+  </si>
+  <si>
+    <t>76549876</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Local Transfer</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>fund transfer</t>
+  </si>
+  <si>
+    <t>kevin</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>1112</t>
+  </si>
+  <si>
+    <t>TestData_003</t>
+  </si>
+  <si>
+    <t>SCB</t>
+  </si>
+  <si>
+    <t>mohan</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>1113</t>
+  </si>
+  <si>
+    <t>TestData_004</t>
+  </si>
+  <si>
+    <t>sambu</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>1114</t>
+  </si>
+  <si>
+    <t>TestData_005</t>
+  </si>
+  <si>
+    <t>IOB</t>
+  </si>
+  <si>
+    <t>gayathri</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1115</t>
+  </si>
+  <si>
+    <t>MavDemo@01</t>
+  </si>
+  <si>
+    <t>Pin</t>
+  </si>
+  <si>
+    <t>Mohan1</t>
+  </si>
+  <si>
+    <t>Murugesan1</t>
+  </si>
+  <si>
+    <t>Demon@123</t>
+  </si>
+  <si>
+    <t>mohan1@zentpeople.com</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Kodumudi</t>
+  </si>
+  <si>
+    <t>Erode</t>
+  </si>
+  <si>
+    <t>Tamil nadu</t>
+  </si>
+  <si>
+    <t>Saving Account</t>
+  </si>
+  <si>
+    <t>mohan2@zentpeople.com</t>
+  </si>
+  <si>
+    <t>mohan3@zentpeople.com</t>
+  </si>
+  <si>
+    <t>mohan4@zentpeople.com</t>
+  </si>
+  <si>
+    <t>mohan5@zentpeople.com</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>confirmPassword</t>
+  </si>
+  <si>
+    <t>DateOfBirth</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Zipcode</t>
+  </si>
+  <si>
+    <t>AccoubtType</t>
+  </si>
+  <si>
+    <t>AccountPin</t>
+  </si>
+  <si>
+    <t>VerifyPin</t>
+  </si>
   <si>
     <t>S.No</t>
-  </si>
-  <si>
-    <t>Databinding</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>TestData_001</t>
-  </si>
-  <si>
-    <t>TestData_002</t>
-  </si>
-  <si>
-    <t>12345</t>
-  </si>
-  <si>
-    <t>abcd</t>
-  </si>
-  <si>
-    <t>efgh</t>
-  </si>
-  <si>
-    <t>ReciverBankName</t>
-  </si>
-  <si>
-    <t>ReceiverName</t>
-  </si>
-  <si>
-    <t>ReceAccNum</t>
-  </si>
-  <si>
-    <t>SwiftMsg</t>
-  </si>
-  <si>
-    <t>TransferType</t>
-  </si>
-  <si>
-    <t>DOT</t>
-  </si>
-  <si>
-    <t>TransferDesc</t>
-  </si>
-  <si>
-    <t>SBI</t>
-  </si>
-  <si>
-    <t>MT103</t>
-  </si>
-  <si>
-    <t>Domestic Transfer</t>
-  </si>
-  <si>
-    <t>DataBinding</t>
-  </si>
-  <si>
-    <t>Data001</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Data002</t>
-  </si>
-  <si>
-    <t>Data003</t>
-  </si>
-  <si>
-    <t>Data004</t>
-  </si>
-  <si>
-    <t>Data005</t>
-  </si>
-  <si>
-    <t>HDFC</t>
-  </si>
-  <si>
-    <t>RBS</t>
-  </si>
-  <si>
-    <t>ICICI</t>
-  </si>
-  <si>
-    <t>CITI</t>
-  </si>
-  <si>
-    <t>Pitter</t>
-  </si>
-  <si>
-    <t>Raj</t>
-  </si>
-  <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>Jacson</t>
-  </si>
-  <si>
-    <t>MT104</t>
-  </si>
-  <si>
-    <t>MT105</t>
-  </si>
-  <si>
-    <t>MT106</t>
-  </si>
-  <si>
-    <t>MT107</t>
-  </si>
-  <si>
-    <t>International Transfer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +318,11 @@
       <color rgb="FF222222"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -184,11 +345,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,61 +632,319 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C24D5F3-E55B-491F-9481-CF63F5F45D52}">
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2">
+        <v>9876543210</v>
+      </c>
+      <c r="H2">
+        <v>12031998</v>
+      </c>
+      <c r="I2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2">
+        <v>638151</v>
+      </c>
+      <c r="N2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O2">
+        <v>12345</v>
+      </c>
+      <c r="P2">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3">
+        <v>9876543210</v>
+      </c>
+      <c r="H3">
+        <v>12031998</v>
+      </c>
+      <c r="I3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" t="s">
+        <v>69</v>
+      </c>
+      <c r="M3">
+        <v>638151</v>
+      </c>
+      <c r="N3" t="s">
+        <v>70</v>
+      </c>
+      <c r="O3">
+        <v>12345</v>
+      </c>
+      <c r="P3">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4">
+        <v>9876543210</v>
+      </c>
+      <c r="H4">
+        <v>12031998</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4">
+        <v>638151</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4">
+        <v>12345</v>
+      </c>
+      <c r="P4">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5">
+        <v>9876543210</v>
+      </c>
+      <c r="H5">
+        <v>12031998</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5">
+        <v>638151</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5">
+        <v>12345</v>
+      </c>
+      <c r="P5">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6">
+        <v>9876543210</v>
+      </c>
+      <c r="H6">
+        <v>12031998</v>
+      </c>
+      <c r="I6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M6">
+        <v>638151</v>
+      </c>
+      <c r="N6" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6">
+        <v>12345</v>
+      </c>
+      <c r="P6">
+        <v>12345</v>
       </c>
     </row>
   </sheetData>
@@ -531,14 +953,336 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED77BAA8-CE43-4D0D-A17D-3348E658C56D}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3">
+        <v>25632523</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4">
+        <v>23365478</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5">
+        <v>23657489</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6">
+        <v>1236548</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>1234556666</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>1234556666</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>1234556666</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>1234556666</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>1234556666</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>1234556666</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7">
+        <v>12345</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E91CADB-E8C6-4F66-A885-A40DC0D6E630}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:I4"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="14.140625" bestFit="1" customWidth="1"/>
@@ -547,178 +1291,178 @@
     <col min="8" max="8" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>1234556655</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F2">
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2">
-        <v>117924</v>
+        <v>14</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1111</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>1234556656</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F3">
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="2">
-        <v>118655</v>
+        <v>14</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D4">
         <v>1234556657</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F4">
         <v>6</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="2">
-        <v>120481</v>
+        <v>14</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D5">
         <v>1234556658</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F5">
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="2">
-        <v>118655</v>
+        <v>14</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D6">
         <v>1234556659</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="2">
-        <v>117559</v>
+        <v>14</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -726,192 +1470,196 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7776799E-0F75-4278-ACA3-2233F84FA8C8}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D2">
         <v>1234556657</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F2">
         <v>6</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H2" s="2">
         <v>120481</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D3">
         <v>1234556658</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F3">
         <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H3" s="2">
         <v>120482</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D4">
         <v>1234556659</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F4">
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H4" s="2">
         <v>120483</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D5">
         <v>1234556660</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F5">
         <v>9</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H5" s="2">
         <v>120484</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D6">
         <v>1234556661</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F6">
         <v>10</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H6" s="2">
         <v>120485</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
